--- a/theo/outputs/PXD/correlations.xlsx
+++ b/theo/outputs/PXD/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.3224639083314074</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>-0.0003286664831942924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.0332982937436568</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.140659270178487</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.3118832652713337</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03482369871460685</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03489840997042175</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2461934314635278</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2436397209492037</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03482369871460685</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03489840997042175</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2461934314635278</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2436397209492037</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.05095638329263563</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.001137611089687341</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.03875373785981062</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.3224639083314074</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.05242653584687837</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.005092761323237904</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.02079803067602725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4585689010444128</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.08465685196600925</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08441325185068775</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.5218659255435768</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.5190009478259664</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.07685486892103659</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.07707117588985181</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4927845679514234</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4899239006639665</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.07551306184754737</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.09388591320886512</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.1142378052604612</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>-0.0003286664831942924</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.05242653584687837</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.7476637390629651</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>-0.05428278646502586</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.02620025050833076</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.09677364754268436</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.09638883915502777</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.07192893832537828</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.07272568124744042</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1364664627512517</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1360261696723741</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.03712298382035777</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.03913556413100942</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.3511217412527076</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1552882025451884</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9366398992019768</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.0332982937436568</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.005092761323237904</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.7476637390629651</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1958427375338306</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.0703199500824789</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1432969444557907</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1432568239685948</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.07239990964531226</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.07253745901802894</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1107372648719857</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1104948826551762</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.07328028202713825</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.07211954995786282</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.3592745740528494</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.206100955970202</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.5617273656790684</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.140659270178487</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.02079803067602725</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>-0.05428278646502586</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1958427375338306</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.3590633534232141</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.05523776869248521</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.0566379873481254</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.3246577752040786</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.3286774084086181</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.07906023545570905</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.08074020889929391</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.3286724138946491</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.332738773496528</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.3524164277451376</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.3315496614555047</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.2332293375774593</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.3118832652713337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4585689010444128</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.02620025050833076</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.0703199500824789</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.3590633534232141</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1005426581498416</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1008748356678581</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5187389794639196</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5215578278079632</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1163539503598646</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.116571802930251</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.521781918875483</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5245777257929495</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1359684294370592</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1586982469022498</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.06025032693457275</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03482369871460685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.08465685196600925</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.09677364754268436</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1432969444557907</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.05523776869248521</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1005426581498416</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998301141060197</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1760890537161276</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1760626339981667</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.04098473499973058</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.04140489248901334</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1619933672887885</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1616416454116249</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.05826358133123144</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.1459134587331276</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.0668852208555885</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03489840997042175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08441325185068775</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.09638883915502777</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1432568239685948</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.0566379873481254</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1008748356678581</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998301141060197</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.17628758489511</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1762770530454828</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.04261857004410686</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.04308837718959688</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1618142400980906</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1614722446613103</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.05895968100283645</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.1452583625019936</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.06615676147920922</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2461934314635278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.5218659255435768</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.07192893832537828</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.07239990964531226</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.3246577752040786</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5187389794639196</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1760890537161276</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.17628758489511</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999495781435241</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.0352338311984818</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.03529617835442951</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9749370581791212</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9748810775558576</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.203163896880946</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.2426579170321248</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.1677368295314855</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2436397209492037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.5190009478259664</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.07272568124744042</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.07253745901802894</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.3286774084086181</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5215578278079632</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1760626339981667</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1762770530454828</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999495781435241</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.03569784819587161</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.03574819459159358</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9750139163390555</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9750527042194472</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.2044775048303764</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.2440981066265527</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1689848303428322</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03482369871460685</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.07685486892103659</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>0.1364664627512517</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.1107372648719857</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.07906023545570905</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1163539503598646</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.04098473499973058</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.04261857004410686</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.0352338311984818</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.03569784819587161</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998301141060197</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1760890537161276</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1760626339981667</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.03124605371785312</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.03083483430065145</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.08866227164694952</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03489840997042175</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.07707117588985181</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>0.1360261696723741</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.1104948826551762</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.08074020889929391</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.116571802930251</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.04140489248901334</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.04308837718959688</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.03529617835442951</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.03574819459159358</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998301141060197</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.17628758489511</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1762770530454828</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.03093148280093042</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.03060189855696681</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.08819755994654774</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2461934314635278</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4927845679514234</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.03712298382035777</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.07328028202713825</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.3286724138946491</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.521781918875483</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1619933672887885</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1618142400980906</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9749370581791212</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9750139163390555</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1760890537161276</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.17628758489511</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999495781435241</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1545578582481673</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.2393769951634976</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1180379372124909</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2436397209492037</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4899239006639665</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.03913556413100942</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.07211954995786282</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.332738773496528</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5245777257929495</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1616416454116249</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1614722446613103</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9748810775558576</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9750527042194472</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1760626339981667</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1762770530454828</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999495781435241</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.155783215334087</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.2406885263495088</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.1202404154404294</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.05095638329263563</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>-0.07551306184754737</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.3511217412527076</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.3592745740528494</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.3524164277451376</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1359684294370592</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.05826358133123144</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.05895968100283645</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.203163896880946</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.2044775048303764</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>0.03124605371785312</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>0.03093148280093042</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1545578582481673</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.155783215334087</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5088237015075953</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5242462664534446</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.001137611089687341</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.09388591320886512</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1552882025451884</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.206100955970202</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.3315496614555047</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.1586982469022498</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.1459134587331276</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.1452583625019936</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.2426579170321248</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.2440981066265527</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.03083483430065145</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.03060189855696681</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.2393769951634976</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.2406885263495088</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.5088237015075953</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2292427311322418</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.03875373785981062</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>-0.1142378052604612</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9366398992019768</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.5617273656790684</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.2332293375774593</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.06025032693457275</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.0668852208555885</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.06615676147920922</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.1677368295314855</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.1689848303428322</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>0.08866227164694952</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>0.08819755994654774</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.1180379372124909</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.1202404154404294</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5242462664534446</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.2292427311322418</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.3291755595533645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.08882002993591764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.07997696619142819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.4542251351834535</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.3407022105401153</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.05039483115463959</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.04873497305098716</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2140924027905292</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.2088715310436214</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.05039483115463959</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.04873497305098716</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2140924027905292</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.2088715310436214</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.001374350187870605</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.0269424952256096</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.009795133829837576</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.3291755595533645</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.01981364133177219</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.009294455384142019</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1085238996500387</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8116241724198913</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.01366623642562285</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.01558866046030402</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2165379416695995</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2204972813680102</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.08039833431336883</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.07842793578606011</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.1973801116463235</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2013385576824906</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.03326000533507032</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.006153339015640772</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.01914469840383504</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.08882002993591764</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.01981364133177219</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.5207780395677934</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.03307645600315753</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.009704920396544406</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.1061570534966989</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.1072987553653065</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.05012408529750517</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.0504205311425966</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1039872257151696</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1076137967223892</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.00557112094437815</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.007484233660042473</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4798067531212238</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.1815119080111879</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9122882376260155</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.07997696619142819</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.009294455384142019</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.5207780395677934</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1768554075491044</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.02543209358134179</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.09390951052224944</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.09472865582459143</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.02788241650816169</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.02686138754108839</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.05110205774396989</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.05179037305384752</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.03780004232739648</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.03603510974139632</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.499134615928738</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1529552706573805</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.426631159765313</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.4542251351834535</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1085238996500387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.03307645600315753</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1768554075491044</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.1438016170033175</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.007940874607188718</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.007379398290641863</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.0696206903821914</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.06485509591570519</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.0174845292456817</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.01712749007741806</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.07128633095999548</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.06654025728363694</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1481878655476214</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2189951302627177</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1420956074394746</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.3407022105401153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8116241724198913</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.009704920396544406</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.02543209358134179</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.1438016170033175</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.08468526567618509</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.08361866581217224</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3945723781110615</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3906092353239534</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.08525148849977014</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.08468102173955891</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.394714584521251</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3908312760548152</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.01628679880235868</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.08433875921694126</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.03422343621832737</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.05039483115463959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.01366623642562285</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.1061570534966989</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.09390951052224944</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.007940874607188718</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.08468526567618509</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994254642650626</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.18041182099555</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1803143133698255</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.002105154693041161</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.001644721074642215</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.179029787137993</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1787244459295396</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2086897436678968</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1211181063837949</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.05285828178558692</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.04873497305098716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.01558866046030402</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.1072987553653065</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.09472865582459143</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.007379398290641863</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.08361866581217224</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994254642650626</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1807064463665549</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1807225451330822</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.001733771740302626</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.001358933074208268</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.179167624424852</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1789784080840796</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2103103587179138</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1197353606271967</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.05330746245441463</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2140924027905292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2165379416695995</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.05012408529750517</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.02788241650816169</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.0696206903821914</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3945723781110615</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.18041182099555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1807064463665549</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996045466185287</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.03011917462532796</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.03053310859662648</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9725234073221164</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9721798476460163</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.07953342556464457</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1506245522800663</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.08730674419914163</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.2088715310436214</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2204972813680102</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.0504205311425966</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.02686138754108839</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.06485509591570519</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3906092353239534</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1803143133698255</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1807225451330822</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996045466185287</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.03122578667077684</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.03164456143411493</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9723238694321117</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9727456296730153</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.07878497436080009</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.149161397780165</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.08672406493531179</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.05039483115463959</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.08039833431336883</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1039872257151696</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.05110205774396989</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.0174845292456817</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.08525148849977014</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.002105154693041161</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.001733771740302626</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.03011917462532796</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.03122578667077684</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994254642650626</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.18041182099555</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1803143133698255</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.08308342672159735</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.02843623540655759</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1203901860332045</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.04873497305098716</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.07842793578606011</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1076137967223892</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.05179037305384752</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.01712749007741806</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.08468102173955891</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.001644721074642215</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.001358933074208268</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.03053310859662648</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.03164456143411493</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994254642650626</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1807064463665549</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1807225451330822</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.08367341610784339</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.02780810120459646</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1209996764390904</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.2140924027905292</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.1973801116463235</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.00557112094437815</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.03780004232739648</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.07128633095999548</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.394714584521251</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.179029787137993</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.179167624424852</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9725234073221164</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9723238694321117</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.18041182099555</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1807064463665549</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996045466185287</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.0427570783108622</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1387887134151371</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.03172145929988157</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.2088715310436214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2013385576824906</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.007484233660042473</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.03603510974139632</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.06654025728363694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3908312760548152</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1787244459295396</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1789784080840796</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9721798476460163</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9727456296730153</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1803143133698255</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1807225451330822</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9996045466185287</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.04300966658817976</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1376690523252679</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.03339135387865831</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>-0.001374350187870605</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.03326000533507032</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4798067531212238</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.499134615928738</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1481878655476214</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.01628679880235868</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2086897436678968</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2103103587179138</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.07953342556464457</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.07878497436080009</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.08308342672159735</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.08367341610784339</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.0427570783108622</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.04300966658817976</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3414386859338155</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.4875351314512777</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.0269424952256096</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.006153339015640772</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.1815119080111879</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1529552706573805</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.2189951302627177</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.08433875921694126</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1211181063837949</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1197353606271967</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1506245522800663</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.149161397780165</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.02843623540655759</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.02780810120459646</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1387887134151371</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1376690523252679</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.3414386859338155</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2481750081995109</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.009795133829837576</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.01914469840383504</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9122882376260155</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.426631159765313</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1420956074394746</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.03422343621832737</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.05285828178558692</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.05330746245441463</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.08730674419914163</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.08672406493531179</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1203901860332045</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1209996764390904</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.03172145929988157</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.03339135387865831</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.4875351314512777</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.2481750081995109</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.2456863752383878</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.03781066972631784</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.03368782546217477</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.2173550431695395</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.2368409469142315</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.0002656962617060972</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.000138960755806801</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.01423455565201939</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01413188568561418</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.0002656962617060972</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.000138960755806801</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.01423455565201939</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01413188568561418</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.001622402229238982</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.02843522122046263</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.001016028011904583</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.2456863752383878</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.00428936837679043</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.004209580633800673</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.02582830255771636</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9385409307474688</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03067542505348654</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03055292502985348</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1960409783081572</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1921910650231434</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.0308360659237454</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.0308229772507883</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1849033059466981</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1811487681871963</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.00124266122344265</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.01354767390527657</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.00554370650203493</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.03781066972631784</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.00428936837679043</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6204147478034245</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.008799794937594413</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>0.003384977291088241</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.07111584834054552</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.07286886042105641</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02480566780764436</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02582495834584373</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.008823659840022015</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.01235990024069159</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01398106500250668</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01546300139067915</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4328739066923736</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.1570146659534121</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9501607822914254</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.03368782546217477</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.004209580633800673</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.6204147478034245</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.1570922081926524</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.007502324654907986</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.02809537143495809</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.02658490444074374</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.009264177808295297</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.009623257257651289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.03661699841757544</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.03799635124256502</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01175216612659306</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01102693925296542</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4384258601894293</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.13727417658372</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5084466776649588</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.2173550431695395</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.02582830255771636</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.008799794937594413</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.1570922081926524</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.05982793312884176</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01155992072237073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0118847722427796</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.09603657169118245</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.09433127898027287</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.01629506459349486</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.01710944466151672</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.09690219749683705</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.09526895131403883</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1704793536419482</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1699962070355576</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1232596811044096</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.2368409469142315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9385409307474688</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>0.003384977291088241</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.007502324654907986</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.05982793312884176</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03321388190999362</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03348435825760273</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1544777375056099</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1576807805936609</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03715878102809909</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03728313279621874</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1551642444472872</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1583380450828092</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01250240681409088</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.009376227111816562</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.01523887578517629</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.0002656962617060972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03067542505348654</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.07111584834054552</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.02809537143495809</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01155992072237073</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03321388190999362</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9977957220183742</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1817009892462997</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1801453066823998</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.005387020058727918</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.002560880011523713</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1765430636933432</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1754972730348853</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.05052360714358944</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.0275129321222797</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.08073353716101868</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.000138960755806801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03055292502985348</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.07286886042105641</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.02658490444074374</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.0118847722427796</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03348435825760273</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9977957220183742</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1821232457158999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1812683697985631</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.003079157200961021</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.000527857099612551</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1773662614408829</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1769572872673988</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.05424226476573487</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.02890541444019411</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.08168082292253259</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.01423455565201939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1960409783081572</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02480566780764436</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.009264177808295297</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.09603657169118245</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1544777375056099</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1817009892462997</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1821232457158999</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9980797474087478</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.01958474846482666</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.01992598796786251</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9705507175695974</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.968801202526291</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.03907532734411247</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.06541551318670109</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.05916058203373008</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01413188568561418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1921910650231434</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02582495834584373</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.009623257257651289</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.09433127898027287</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1576807805936609</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1801453066823998</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1812683697985631</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9980797474087478</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.02024315719394535</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.02058383113382588</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.968901878907968</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9708617130530732</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.040656151151915</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.06853308931108068</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.05963940970607721</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.0002656962617060972</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.0308360659237454</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.008823659840022015</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.03661699841757544</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.01629506459349486</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03715878102809909</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.005387020058727918</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.003079157200961021</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.01958474846482666</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.02024315719394535</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9977957220183742</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1817009892462997</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1801453066823998</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.02540228854156674</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.02415466811674662</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.01582060511367301</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.000138960755806801</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.0308229772507883</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.01235990024069159</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.03799635124256502</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.01710944466151672</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03728313279621874</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.002560880011523713</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.000527857099612551</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.01992598796786251</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.02058383113382588</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9977957220183742</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1821232457158999</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1812683697985631</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.0230918516388482</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.02215105126926957</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.01360979417585416</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.01423455565201939</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1849033059466981</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01398106500250668</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01175216612659306</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.09690219749683705</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1551642444472872</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1765430636933432</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1773662614408829</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9705507175695974</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.968901878907968</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1817009892462997</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1821232457158999</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9980797474087478</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.02840663217668385</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.06575075515380978</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.04494742776751666</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01413188568561418</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.1811487681871963</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01546300139067915</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01102693925296542</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.09526895131403883</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1583380450828092</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1754972730348853</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1769572872673988</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.968801202526291</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9708617130530732</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1801453066823998</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1812683697985631</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9980797474087478</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.0293119166739982</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.06841959020178259</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.04610763866967022</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.001622402229238982</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.00124266122344265</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4328739066923736</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.4384258601894293</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1704793536419482</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01250240681409088</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.05052360714358944</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.05424226476573487</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.03907532734411247</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.040656151151915</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.02540228854156674</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.0230918516388482</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.02840663217668385</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.0293119166739982</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.3377214009349659</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5044563690219891</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.02843522122046263</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.01354767390527657</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.1570146659534121</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.13727417658372</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1699962070355576</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.009376227111816562</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.0275129321222797</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.02890541444019411</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.06541551318670109</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.06853308931108068</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.02415466811674662</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.02215105126926957</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.06575075515380978</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.06841959020178259</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.3377214009349659</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.1934308391669274</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.001016028011904583</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.00554370650203493</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9501607822914254</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.5084466776649588</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1232596811044096</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.01523887578517629</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.08073353716101868</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.08168082292253259</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.05916058203373008</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.05963940970607721</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.01582060511367301</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.01360979417585416</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.04494742776751666</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.04610763866967022</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5044563690219891</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.1934308391669274</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
